--- a/seeds.xlsx
+++ b/seeds.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apostoloskapetanios/Library/Mobile Documents/com~apple~CloudDocs/Knowledge/Programming/PersonalProjects/node_exercise/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B098B6-6C1A-274A-A871-C9DEEFF396A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D676AC14-90D9-5B47-973F-D5E071B2132D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21100" yWindow="29540" windowWidth="13460" windowHeight="21600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="29540" windowWidth="34560" windowHeight="21600" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="1" r:id="rId1"/>
     <sheet name="messages" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">messages!$A$1:$F$100</definedName>
+  </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -815,8 +818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView zoomScale="185" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -8951,8 +8954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="126" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -11008,6 +11011,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F100" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
